--- a/medicine/Enfance/Vernix_caseosa/Vernix_caseosa.xlsx
+++ b/medicine/Enfance/Vernix_caseosa/Vernix_caseosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vernix caseosa (expression latine signifiant littéralement « vernis de fromage ») est une substance cireuse d'origine sébacée, blanchâtre et grasse, recouvrant et protégeant la peau des nouveau-nés. In utero, il protège la peau du fœtus du milieu aqueux, le liquide amniotique, qui l'entoure.
@@ -512,11 +524,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les glandes sébacées produisent un sébum qui, associé aux cellules épithéliales desquamées, sécrète cet enduit cireux qui favorise la mise en place du film hydrolipidique chez le fœtus.
-Enduit exclusivement humain, le vernix caseosa serait à l'origine de l'odeur particulière des nouveau-nés. C'est une odeur très agréable qui déclenche les zones cérébrales de la mère associées à la récompense[1].
-La peau des prématurés présente des quantités plus importantes de vernix que les nourrissons nés à terme. Après la naissance, il est inutile de l'essuyer, la peau du nourrisson l'absorbe naturellement. À la naissance, les glandes sébacées sont en effet devenues inactives. Elles recommencent à fonctionner à l'âge prépubertaire (8 à 10 ans), avec une amplification au moment de la puberté, notamment sous l'action des hormones stéroïdiennes[2].
+Enduit exclusivement humain, le vernix caseosa serait à l'origine de l'odeur particulière des nouveau-nés. C'est une odeur très agréable qui déclenche les zones cérébrales de la mère associées à la récompense.
+La peau des prématurés présente des quantités plus importantes de vernix que les nourrissons nés à terme. Après la naissance, il est inutile de l'essuyer, la peau du nourrisson l'absorbe naturellement. À la naissance, les glandes sébacées sont en effet devenues inactives. Elles recommencent à fonctionner à l'âge prépubertaire (8 à 10 ans), avec une amplification au moment de la puberté, notamment sous l'action des hormones stéroïdiennes.
 </t>
         </is>
       </c>
